--- a/premium/src/main/resources/hospital_cash_floater.xlsx
+++ b/premium/src/main/resources/hospital_cash_floater.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369CA713-30E5-DC40-AFF2-AC0F2D647D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B48F3-63C3-5E4C-86CE-9F2FC8689AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{29817701-F838-B748-AA0F-DEA832F4089D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{29817701-F838-B748-AA0F-DEA832F4089D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Age-band | No. of days</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LTE 35</t>
   </si>
@@ -46,23 +43,22 @@
   </si>
   <si>
     <t>61-65</t>
+  </si>
+  <si>
+    <t>GT 65</t>
+  </si>
+  <si>
+    <t>Age-band | No. of Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,21 +72,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,26 +103,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,130 +449,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68334F2E-043C-A249-B1F9-D77959492753}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+      <c r="D1">
+        <v>90</v>
+      </c>
+      <c r="E1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B2" s="2">
         <v>320</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C2" s="3">
         <v>640</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D2" s="3">
         <v>1280</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E2" s="3">
         <v>2560</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="4">
         <v>336</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="4">
         <v>672</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="4">
         <v>1344</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="4">
         <v>2688</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="4">
         <v>352</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="4">
         <v>704</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="4">
         <v>1408</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="4">
         <v>2816</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="4">
         <v>368</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="4">
         <v>736</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="4">
         <v>1472</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="4">
         <v>2944</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="4">
         <v>384</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="4">
         <v>768</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="4">
         <v>1536</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="4">
         <v>3072</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="4">
         <v>400</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="4">
         <v>800</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="4">
         <v>1600</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="4">
         <v>3200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="4">
         <v>416</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="4">
         <v>832</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="4">
         <v>1664</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="4">
         <v>3328</v>
       </c>
     </row>
